--- a/server/templates/excel/SCADA-Trackers-monitoring.xlsx
+++ b/server/templates/excel/SCADA-Trackers-monitoring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PJs\ChecksheetsApp\server\templates\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13C740C-543E-4034-85E9-8E8F839D93C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5F159F-10C0-469C-824D-89DE9D8BE686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scada tracker" sheetId="10" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>#</t>
   </si>
@@ -178,6 +178,18 @@
   </si>
   <si>
     <t>{last_revision_date}</t>
+  </si>
+  <si>
+    <t>{checklist_made_by}</t>
+  </si>
+  <si>
+    <t>{last_revision_approved_by}</t>
+  </si>
+  <si>
+    <t>{inspection_date}</t>
+  </si>
+  <si>
+    <t>{value}</t>
   </si>
 </sst>
 </file>
@@ -1284,8 +1296,8 @@
   </sheetPr>
   <dimension ref="A1:Z284"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="I1" zoomScale="90" zoomScaleNormal="70" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:M5"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.65" customHeight="1" zeroHeight="1"/>
@@ -1384,14 +1396,14 @@
     </row>
     <row r="5" spans="1:13" ht="22.15" customHeight="1" thickBot="1">
       <c r="A5" s="108" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B5" s="109"/>
       <c r="C5" s="109"/>
       <c r="D5" s="109"/>
       <c r="E5" s="110"/>
       <c r="F5" s="108" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G5" s="109"/>
       <c r="H5" s="110"/>
@@ -1431,7 +1443,9 @@
       <c r="B7" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="93"/>
+      <c r="C7" s="93" t="s">
+        <v>46</v>
+      </c>
       <c r="D7" s="18"/>
       <c r="E7" s="77" t="s">
         <v>5</v>
@@ -1566,8 +1580,12 @@
       <c r="G13" s="87"/>
       <c r="H13" s="87"/>
       <c r="I13" s="92"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
+      <c r="J13" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>47</v>
+      </c>
       <c r="L13" s="17" t="s">
         <v>37</v>
       </c>
@@ -1629,8 +1647,12 @@
       <c r="G16" s="114"/>
       <c r="H16" s="114"/>
       <c r="I16" s="92"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
+      <c r="J16" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>47</v>
+      </c>
       <c r="L16" s="17" t="s">
         <v>37</v>
       </c>
@@ -2487,41 +2509,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <OMContract xmlns="7165ecc1-11a1-4a26-a452-208ffd706532">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </OMContract>
-    <ASBDrawing xmlns="7165ecc1-11a1-4a26-a452-208ffd706532">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </ASBDrawing>
-    <CommencementNotice xmlns="7165ecc1-11a1-4a26-a452-208ffd706532">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </CommencementNotice>
-    <Number_x0020_of_x0020_File xmlns="7165ecc1-11a1-4a26-a452-208ffd706532" xsi:nil="true"/>
-    <TaxCatchAll xmlns="0cb1ff7e-53ad-49fc-9570-466d311f3e4b" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7165ecc1-11a1-4a26-a452-208ffd706532">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008718130C2962994C90036D787BFA6B4C" ma:contentTypeVersion="23" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="15183c27e6178b658cfb250166ea54db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7165ecc1-11a1-4a26-a452-208ffd706532" xmlns:ns3="0cb1ff7e-53ad-49fc-9570-466d311f3e4b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8e37365f111de1e71a8bd4cd3815cdbf" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2828,10 +2815,58 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <OMContract xmlns="7165ecc1-11a1-4a26-a452-208ffd706532">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </OMContract>
+    <ASBDrawing xmlns="7165ecc1-11a1-4a26-a452-208ffd706532">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </ASBDrawing>
+    <CommencementNotice xmlns="7165ecc1-11a1-4a26-a452-208ffd706532">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </CommencementNotice>
+    <Number_x0020_of_x0020_File xmlns="7165ecc1-11a1-4a26-a452-208ffd706532" xsi:nil="true"/>
+    <TaxCatchAll xmlns="0cb1ff7e-53ad-49fc-9570-466d311f3e4b" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7165ecc1-11a1-4a26-a452-208ffd706532">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8D065F1-FBC0-4882-9BF5-AD6D54250913}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A4F25F7-5A88-4D2F-B254-DD75AD67A8D3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="7165ecc1-11a1-4a26-a452-208ffd706532"/>
+    <ds:schemaRef ds:uri="0cb1ff7e-53ad-49fc-9570-466d311f3e4b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2855,22 +2890,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A4F25F7-5A88-4D2F-B254-DD75AD67A8D3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8D065F1-FBC0-4882-9BF5-AD6D54250913}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="7165ecc1-11a1-4a26-a452-208ffd706532"/>
-    <ds:schemaRef ds:uri="0cb1ff7e-53ad-49fc-9570-466d311f3e4b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>